--- a/biology/Botanique/Lexington_Battle_Green/Lexington_Battle_Green.xlsx
+++ b/biology/Botanique/Lexington_Battle_Green/Lexington_Battle_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Lexington Battle Green ou Lexington Common est le site de la bataille de Lexington en 1775, au début de la guerre d'indépendance des États-Unis. Il est inscrit au Registre national des lieux historiques et est National Historic Landmark. Ce parc du centre de Lexington dans le Massachusetts avait été acheté par souscription de certains citoyens de la ville en 1711.
